--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1041,11 +1041,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="178483584"/>
-        <c:axId val="178485120"/>
+        <c:axId val="150145280"/>
+        <c:axId val="150159360"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="178483584"/>
+        <c:axId val="150145280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178485120"/>
+        <c:crossAx val="150159360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1096,7 +1096,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178485120"/>
+        <c:axId val="150159360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1700"/>
@@ -1163,7 +1163,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178483584"/>
+        <c:crossAx val="150145280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="300"/>
@@ -2076,7 +2076,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2087,10 +2087,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2102,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43928</v>
+        <v>43961</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2823,6 +2823,369 @@
         <v>1364</v>
       </c>
       <c r="C67" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B83" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B84" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B86" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B95" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B96" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C100" s="5">
         <v>1737</v>
       </c>
     </row>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1041,11 +1041,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="150145280"/>
-        <c:axId val="150159360"/>
+        <c:axId val="178483584"/>
+        <c:axId val="178485120"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="150145280"/>
+        <c:axId val="178483584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150159360"/>
+        <c:crossAx val="178485120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1096,7 +1096,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150159360"/>
+        <c:axId val="178485120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1700"/>
@@ -1163,7 +1163,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150145280"/>
+        <c:crossAx val="178483584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="300"/>
@@ -2076,7 +2076,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2087,10 +2087,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2102,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43961</v>
+        <v>43928</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2823,369 +2823,6 @@
         <v>1364</v>
       </c>
       <c r="C67" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B70" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
-        <v>43933</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
-        <v>43934</v>
-      </c>
-      <c r="B73" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B74" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C74" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B75" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B76" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B82" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B83" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B84" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B85" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B86" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
-        <v>43948</v>
-      </c>
-      <c r="B87" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
-        <v>43949</v>
-      </c>
-      <c r="B88" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C88" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B89" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B90" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C90" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B91" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C91" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B92" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C92" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B93" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B94" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C94" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B95" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B96" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C96" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B97" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B98" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C98" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B99" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C99" s="5">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
-        <v>43961</v>
-      </c>
-      <c r="B100" s="5">
-        <v>1364</v>
-      </c>
-      <c r="C100" s="5">
         <v>1737</v>
       </c>
     </row>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200521更新/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BE3F14-F1F2-E54A-BD6D-19C913B88C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="45" windowWidth="14970" windowHeight="12675"/>
+    <workbookView xWindow="13840" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +62,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,13 +134,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +182,15 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -174,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -434,44 +463,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43964</v>
+        <v>43969</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -480,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>43865</v>
       </c>
@@ -491,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>43866</v>
       </c>
@@ -502,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>43867</v>
       </c>
@@ -513,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>43868</v>
       </c>
@@ -524,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>43869</v>
       </c>
@@ -535,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>43870</v>
       </c>
@@ -546,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>43871</v>
       </c>
@@ -557,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>43872</v>
       </c>
@@ -568,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>43873</v>
       </c>
@@ -579,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>43874</v>
       </c>
@@ -590,7 +619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>43875</v>
       </c>
@@ -601,7 +630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>43876</v>
       </c>
@@ -612,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>43877</v>
       </c>
@@ -623,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>43878</v>
       </c>
@@ -634,7 +663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
@@ -645,7 +674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>43880</v>
       </c>
@@ -656,7 +685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>43881</v>
       </c>
@@ -667,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>43882</v>
       </c>
@@ -678,7 +707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>43883</v>
       </c>
@@ -689,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>43884</v>
       </c>
@@ -700,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>43885</v>
       </c>
@@ -711,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>43886</v>
       </c>
@@ -722,7 +751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>43887</v>
       </c>
@@ -733,7 +762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>43888</v>
       </c>
@@ -744,7 +773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43889</v>
       </c>
@@ -755,7 +784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43890</v>
       </c>
@@ -766,7 +795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43891</v>
       </c>
@@ -777,7 +806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43892</v>
       </c>
@@ -788,7 +817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43893</v>
       </c>
@@ -799,7 +828,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43894</v>
       </c>
@@ -810,7 +839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43895</v>
       </c>
@@ -821,7 +850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43896</v>
       </c>
@@ -832,7 +861,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43897</v>
       </c>
@@ -843,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43898</v>
       </c>
@@ -854,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="18">
       <c r="A38" s="1">
         <v>43899</v>
       </c>
@@ -865,7 +894,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43900</v>
       </c>
@@ -876,7 +905,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43901</v>
       </c>
@@ -887,7 +916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43902</v>
       </c>
@@ -898,7 +927,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43903</v>
       </c>
@@ -909,7 +938,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43904</v>
       </c>
@@ -920,7 +949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43905</v>
       </c>
@@ -931,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43906</v>
       </c>
@@ -942,7 +971,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43907</v>
       </c>
@@ -953,7 +982,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43908</v>
       </c>
@@ -964,7 +993,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43909</v>
       </c>
@@ -975,7 +1004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43910</v>
       </c>
@@ -986,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43911</v>
       </c>
@@ -997,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43912</v>
       </c>
@@ -1008,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43913</v>
       </c>
@@ -1019,7 +1048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43914</v>
       </c>
@@ -1030,7 +1059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43915</v>
       </c>
@@ -1041,7 +1070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43916</v>
       </c>
@@ -1052,7 +1081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43917</v>
       </c>
@@ -1063,7 +1092,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43918</v>
       </c>
@@ -1074,7 +1103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43919</v>
       </c>
@@ -1085,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43920</v>
       </c>
@@ -1096,7 +1125,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>43921</v>
       </c>
@@ -1107,7 +1136,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>43922</v>
       </c>
@@ -1118,7 +1147,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>43923</v>
       </c>
@@ -1129,7 +1158,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>43924</v>
       </c>
@@ -1140,7 +1169,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>43925</v>
       </c>
@@ -1151,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>43926</v>
       </c>
@@ -1162,7 +1191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>43927</v>
       </c>
@@ -1173,7 +1202,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>43928</v>
       </c>
@@ -1184,7 +1213,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>43929</v>
       </c>
@@ -1195,7 +1224,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>43930</v>
       </c>
@@ -1206,7 +1235,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>43931</v>
       </c>
@@ -1217,7 +1246,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>43932</v>
       </c>
@@ -1228,7 +1257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>43933</v>
       </c>
@@ -1239,7 +1268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>43934</v>
       </c>
@@ -1250,7 +1279,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>43935</v>
       </c>
@@ -1261,7 +1290,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>43936</v>
       </c>
@@ -1272,7 +1301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>43937</v>
       </c>
@@ -1283,7 +1312,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>43938</v>
       </c>
@@ -1294,7 +1323,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>43939</v>
       </c>
@@ -1305,7 +1334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>43940</v>
       </c>
@@ -1316,7 +1345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>43941</v>
       </c>
@@ -1327,7 +1356,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>43942</v>
       </c>
@@ -1338,7 +1367,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>43943</v>
       </c>
@@ -1349,7 +1378,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>43944</v>
       </c>
@@ -1360,7 +1389,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>43945</v>
       </c>
@@ -1371,7 +1400,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>43946</v>
       </c>
@@ -1382,7 +1411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>43947</v>
       </c>
@@ -1393,7 +1422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>43948</v>
       </c>
@@ -1404,7 +1433,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>43949</v>
       </c>
@@ -1415,7 +1444,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>43950</v>
       </c>
@@ -1426,7 +1455,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>43951</v>
       </c>
@@ -1437,7 +1466,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>43952</v>
       </c>
@@ -1448,7 +1477,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>43953</v>
       </c>
@@ -1459,7 +1488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>43954</v>
       </c>
@@ -1470,7 +1499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>43955</v>
       </c>
@@ -1481,7 +1510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>43956</v>
       </c>
@@ -1492,7 +1521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>43957</v>
       </c>
@@ -1503,7 +1532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>43958</v>
       </c>
@@ -1514,7 +1543,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>43959</v>
       </c>
@@ -1525,7 +1554,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>43960</v>
       </c>
@@ -1536,7 +1565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>43961</v>
       </c>
@@ -1547,7 +1576,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>43962</v>
       </c>
@@ -1558,7 +1587,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>43963</v>
       </c>
@@ -1569,7 +1598,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>43964</v>
       </c>
@@ -1580,23 +1609,66 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B104" s="12">
+        <v>320</v>
+      </c>
+      <c r="C104" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B105">
+        <v>296</v>
+      </c>
+      <c r="C105" s="10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B106">
+        <v>289</v>
+      </c>
+      <c r="C106" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B107">
+        <v>251</v>
+      </c>
+      <c r="C107" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B108">
+        <v>307</v>
+      </c>
+      <c r="C108">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200521更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200522更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BE3F14-F1F2-E54A-BD6D-19C913B88C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53B2D4-92DF-5E49-8FE1-EF7CB5543CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13840" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +189,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -489,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43969</v>
+        <v>43972</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1665,10 +1668,34 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B109">
+        <v>242</v>
+      </c>
+      <c r="C109" s="13">
+        <v>150</v>
+      </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B110">
+        <v>228</v>
+      </c>
+      <c r="C110" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C111">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200522更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200525更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53B2D4-92DF-5E49-8FE1-EF7CB5543CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263A99A-D141-6846-A3E1-EAC0A008CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13840" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1693,8 +1693,19 @@
       <c r="A111" s="1">
         <v>43972</v>
       </c>
+      <c r="B111">
+        <v>209</v>
+      </c>
       <c r="C111">
         <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C112" s="13">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200525更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200526更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263A99A-D141-6846-A3E1-EAC0A008CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BBE76C-774D-EA47-A718-D348BED60083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1704,8 +1704,35 @@
       <c r="A112" s="1">
         <v>43973</v>
       </c>
+      <c r="B112">
+        <v>473</v>
+      </c>
       <c r="C112" s="13">
         <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B113">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B114">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B115">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200526更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200528更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BBE76C-774D-EA47-A718-D348BED60083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C2AF99-4EE7-3444-916E-30A776E1C6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1711,28 +1711,48 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>43974</v>
       </c>
       <c r="B113">
         <v>281</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>43975</v>
       </c>
       <c r="B114">
         <v>177</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>43976</v>
       </c>
       <c r="B115">
         <v>331</v>
+      </c>
+      <c r="C115" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B116">
+        <v>187</v>
+      </c>
+      <c r="C116">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200528更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200531更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C2AF99-4EE7-3444-916E-30A776E1C6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A2BB9F-B551-2241-880E-5820B9088074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200531更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200601更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A2BB9F-B551-2241-880E-5820B9088074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD70B2-EB25-9B47-A50B-65E897F71396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1755,6 +1755,46 @@
         <v>67</v>
       </c>
     </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B117">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B118">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B119">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B120">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B121">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200601更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200603更新2回め/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD70B2-EB25-9B47-A50B-65E897F71396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327D554-9B47-2845-AD87-15D950CA0E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43977</v>
+        <v>43985</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1762,6 +1762,9 @@
       <c r="B117">
         <v>198</v>
       </c>
+      <c r="C117" s="13">
+        <v>151</v>
+      </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
@@ -1770,6 +1773,9 @@
       <c r="B118">
         <v>186</v>
       </c>
+      <c r="C118" s="13">
+        <v>48</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
@@ -1778,6 +1784,9 @@
       <c r="B119">
         <v>172</v>
       </c>
+      <c r="C119" s="13">
+        <v>49</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
@@ -1786,6 +1795,9 @@
       <c r="B120">
         <v>180</v>
       </c>
+      <c r="C120" s="13">
+        <v>26</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
@@ -1793,6 +1805,28 @@
       </c>
       <c r="B121">
         <v>167</v>
+      </c>
+      <c r="C121" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B122">
+        <v>256</v>
+      </c>
+      <c r="C122" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>43984</v>
+      </c>
+      <c r="C123">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200603更新2回め/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200604更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327D554-9B47-2845-AD87-15D950CA0E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9282F18-0981-364E-BCD6-0CCC11A5A9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1825,8 +1825,22 @@
       <c r="A123" s="1">
         <v>43984</v>
       </c>
+      <c r="B123">
+        <v>275</v>
+      </c>
       <c r="C123">
         <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B124">
+        <v>264</v>
+      </c>
+      <c r="C124" s="13">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200604更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200605更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9282F18-0981-364E-BCD6-0CCC11A5A9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D172A81B-6F1C-C844-9493-D5B0A0B5D424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1843,6 +1843,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C125" s="13">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200605更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200608更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D172A81B-6F1C-C844-9493-D5B0A0B5D424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B4344A-46B3-EB4F-8D40-540940E1E3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1847,9 +1847,39 @@
       <c r="A125" s="1">
         <v>43986</v>
       </c>
+      <c r="B125">
+        <v>263</v>
+      </c>
       <c r="C125" s="13">
         <v>70</v>
       </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C126" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>43988</v>
+      </c>
+      <c r="C127" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C128" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200608更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B4344A-46B3-EB4F-8D40-540940E1E3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D451643-3D4B-2747-B958-3347DDA8A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1859,27 +1859,11 @@
         <v>43987</v>
       </c>
       <c r="C126" s="13">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>43988</v>
-      </c>
-      <c r="C127" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>43989</v>
-      </c>
-      <c r="C128" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1"/>
+      <c r="A127" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200608更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200609更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D451643-3D4B-2747-B958-3347DDA8A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90356A-1DA8-D14C-B077-7E7CF804F0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1858,12 +1858,42 @@
       <c r="A126" s="1">
         <v>43987</v>
       </c>
+      <c r="B126">
+        <v>224</v>
+      </c>
       <c r="C126" s="13">
         <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B127">
+        <v>213</v>
+      </c>
+      <c r="C127" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B128">
+        <v>199</v>
+      </c>
+      <c r="C128" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>43990</v>
+      </c>
+      <c r="C129" s="13">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200609更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200610更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90356A-1DA8-D14C-B077-7E7CF804F0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781E623-FB66-8C40-8503-713748492CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16120" yWindow="-20860" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1891,8 +1891,19 @@
       <c r="A129" s="1">
         <v>43990</v>
       </c>
+      <c r="B129">
+        <v>269</v>
+      </c>
       <c r="C129" s="13">
         <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>43991</v>
+      </c>
+      <c r="C130" s="13">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200610更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200611更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781E623-FB66-8C40-8503-713748492CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510D814-CF3B-CD40-9651-5FA959DE8842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="-20860" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="660" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1903,6 +1903,22 @@
         <v>43991</v>
       </c>
       <c r="C130" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>43992</v>
+      </c>
+      <c r="C131" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C132" s="13">
         <v>52</v>
       </c>
     </row>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200611更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200617更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510D814-CF3B-CD40-9651-5FA959DE8842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5521499C-8C5A-CC4B-B31C-CA63CF3342A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="660" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43994</v>
+        <v>43999</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1902,6 +1902,9 @@
       <c r="A130" s="1">
         <v>43991</v>
       </c>
+      <c r="B130">
+        <v>209</v>
+      </c>
       <c r="C130" s="13">
         <v>52</v>
       </c>
@@ -1910,6 +1913,9 @@
       <c r="A131" s="1">
         <v>43992</v>
       </c>
+      <c r="B131">
+        <v>200</v>
+      </c>
       <c r="C131" s="13">
         <v>60</v>
       </c>
@@ -1918,8 +1924,66 @@
       <c r="A132" s="1">
         <v>43993</v>
       </c>
+      <c r="B132">
+        <v>156</v>
+      </c>
       <c r="C132" s="13">
         <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B133">
+        <v>153</v>
+      </c>
+      <c r="C133" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B134">
+        <v>139</v>
+      </c>
+      <c r="C134" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B135">
+        <v>137</v>
+      </c>
+      <c r="C135" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B136">
+        <v>188</v>
+      </c>
+      <c r="C136" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B137">
+        <v>154</v>
+      </c>
+      <c r="C137" s="13">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200617更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200623更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5521499C-8C5A-CC4B-B31C-CA63CF3342A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B83B8-E9EC-6543-80BE-20141E21631D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43999</v>
+        <v>44005</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1984,6 +1984,69 @@
       </c>
       <c r="C137" s="13">
         <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B138">
+        <v>161</v>
+      </c>
+      <c r="C138" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B139">
+        <v>153</v>
+      </c>
+      <c r="C139" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B140">
+        <v>149</v>
+      </c>
+      <c r="C140" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B141">
+        <v>131</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B142">
+        <v>129</v>
+      </c>
+      <c r="C142">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>44004</v>
+      </c>
+      <c r="C143">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200623更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200625更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386B83B8-E9EC-6543-80BE-20141E21631D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F9545-A802-9B40-80B5-8F926C1585BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2045,8 +2045,33 @@
       <c r="A143" s="1">
         <v>44004</v>
       </c>
+      <c r="B143">
+        <v>165</v>
+      </c>
       <c r="C143">
         <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B144">
+        <v>130</v>
+      </c>
+      <c r="C144">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B145">
+        <v>125</v>
+      </c>
+      <c r="C145">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200625更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200627更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F9545-A802-9B40-80B5-8F926C1585BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1AA7F5-1885-E04C-A18D-8F50F5DA6588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13700" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2074,6 +2074,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B146">
+        <v>169</v>
+      </c>
+      <c r="C146">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200627更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200629更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1AA7F5-1885-E04C-A18D-8F50F5DA6588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91904C-96A9-B745-A977-C7C84A999CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13700" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2085,6 +2085,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C147">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200629更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200701更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91904C-96A9-B745-A977-C7C84A999CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38AB606-F722-E04A-8E29-6E630DBBB2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="500" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="1060" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>44007</v>
+        <v>44013</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2089,8 +2089,52 @@
       <c r="A147" s="1">
         <v>44008</v>
       </c>
+      <c r="B147">
+        <v>148</v>
+      </c>
       <c r="C147">
         <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B148">
+        <v>121</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B149">
+        <v>115</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B150">
+        <v>186</v>
+      </c>
+      <c r="C150">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B151">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200701更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200706更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38AB606-F722-E04A-8E29-6E630DBBB2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8AF3F-F263-FA49-AC7D-E39FC12A4105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="1060" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="-21140" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>44013</v>
+        <v>44018</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2135,6 +2135,31 @@
       </c>
       <c r="B151">
         <v>156</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B152">
+        <v>167</v>
+      </c>
+      <c r="C152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B153">
+        <v>172</v>
+      </c>
+      <c r="C153">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10705"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200706更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200708更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8AF3F-F263-FA49-AC7D-E39FC12A4105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65B19BC-7985-F141-83F4-363B95FE020D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="-21140" windowWidth="18720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14140" yWindow="800" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2161,6 +2161,26 @@
       <c r="C153">
         <v>127</v>
       </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B154">
+        <v>206</v>
+      </c>
+      <c r="C154">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200708更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200709更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65B19BC-7985-F141-83F4-363B95FE020D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62652B-36FC-FF45-8C7B-FD87830ACE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="800" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="460" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2174,13 +2174,45 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B155">
+        <v>184</v>
+      </c>
+      <c r="C155">
+        <v>45</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B156">
+        <v>211</v>
+      </c>
+      <c r="C156">
+        <v>52</v>
+      </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B157">
+        <v>274</v>
+      </c>
+      <c r="C157">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C158">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200709更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200710更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62652B-36FC-FF45-8C7B-FD87830ACE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB3F95-A184-FC48-BEEF-DA10CA99295E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="460" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12280" yWindow="2600" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2210,9 +2210,34 @@
       <c r="A158" s="1">
         <v>44019</v>
       </c>
+      <c r="B158">
+        <v>179</v>
+      </c>
       <c r="C158">
         <v>167</v>
       </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B159">
+        <v>189</v>
+      </c>
+      <c r="C159">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C160">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200710更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200716更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB3F95-A184-FC48-BEEF-DA10CA99295E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391B497-06DD-FC4B-9D5D-0BC0114EDF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="2600" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="-20540" windowWidth="25560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2236,8 +2236,45 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1"/>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C162">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C163">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C164">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C165">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
